--- a/Linking_ISA_Lab/Book1.xlsx
+++ b/Linking_ISA_Lab/Book1.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukeanglin/Desktop/Aymuk/Linking_ISA_Lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukeanglin/Desktop/SchoolRepos/Aymuk/Linking_ISA_Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE6D75DC-8964-9C4E-B7E3-4A10A27467A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1DE614-9654-7349-B5E2-9279E461C77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{E588302A-D9D1-6B47-970C-335E7B2A865D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>instruction size (bits)</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>maximum register count (3 operands)</t>
-  </si>
-  <si>
-    <t>~</t>
   </si>
 </sst>
 </file>
@@ -410,7 +407,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,11 +467,11 @@
       <c r="B4" s="1">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
+      <c r="C4" s="1">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -484,10 +481,10 @@
       <c r="B5" s="1">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="1">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1">
         <v>4</v>
       </c>
     </row>
@@ -498,11 +495,13 @@
       <c r="B6" s="1">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
+      <c r="C6" s="1">
+        <f>POWER(2,11)</f>
+        <v>2048</v>
+      </c>
+      <c r="D6" s="1">
+        <f>POWER(2,7)</f>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
